--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219395.4878644387</v>
+        <v>-222096.7045158952</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12912505.35713351</v>
+        <v>12912505.3571335</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053265</v>
+        <v>244.8448976285502</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>28.27804464479138</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>64.57040591351145</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.96645664989342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>38.00147839460158</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.72449169794809</v>
+        <v>29.25465843987164</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.687727815429</v>
+        <v>383.6877278154286</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.84921929645795</v>
+        <v>42.61968882796356</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333232</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951748</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258714076</v>
+        <v>4.360182258714133</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>107.8817146344902</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643777</v>
+        <v>1.905236112643848</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315186</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>149.8782986824966</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.67565404890308</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>315.0486226219547</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>75.27834706433225</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542834</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>394.348839203129</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>207.8445226897684</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>142.3070380754035</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>19.30435763635586</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457615</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>79.4131483096416</v>
+        <v>34.44047701880649</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>93.07916359105462</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12.96996784159735</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>32.44181015857195</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>137.4337101450033</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179546</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>234.167871128197</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.2675832342686</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373719</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703265</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>140.3074752009602</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>47.33239976701618</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618077</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428207</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388466</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
@@ -4337,7 +4337,7 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471535</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672.781252353926</v>
+        <v>346.294933315894</v>
       </c>
       <c r="C3" t="n">
-        <v>498.3282230727989</v>
+        <v>346.294933315894</v>
       </c>
       <c r="D3" t="n">
-        <v>349.3938134115477</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>840.9965893739941</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>840.9965893739941</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="W3" t="n">
-        <v>840.9965893739941</v>
+        <v>554.1464335214268</v>
       </c>
       <c r="X3" t="n">
-        <v>840.9965893739941</v>
+        <v>346.294933315894</v>
       </c>
       <c r="Y3" t="n">
-        <v>840.9965893739941</v>
+        <v>346.294933315894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.1328882755971</v>
+        <v>390.5330160718809</v>
       </c>
       <c r="C4" t="n">
-        <v>482.1967053476902</v>
+        <v>221.596833143974</v>
       </c>
       <c r="D4" t="n">
-        <v>482.1967053476902</v>
+        <v>221.596833143974</v>
       </c>
       <c r="E4" t="n">
-        <v>482.1967053476902</v>
+        <v>221.596833143974</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>74.7068856460636</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>700.5939555987218</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5939555987218</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="X4" t="n">
-        <v>700.5939555987218</v>
+        <v>572.1814809021206</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.5939555987218</v>
+        <v>572.1814809021206</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.75616715418334</v>
+        <v>794.4188945618744</v>
       </c>
       <c r="C5" t="n">
-        <v>76.75616715418334</v>
+        <v>425.4563776214627</v>
       </c>
       <c r="D5" t="n">
-        <v>76.75616715418334</v>
+        <v>67.19067901471215</v>
       </c>
       <c r="E5" t="n">
-        <v>76.75616715418334</v>
+        <v>67.19067901471215</v>
       </c>
       <c r="F5" t="n">
-        <v>69.81066640497987</v>
+        <v>60.24517826550867</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523429</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523429</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523429</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275067</v>
+        <v>93.7664115927505</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245545</v>
+        <v>239.0325989245539</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825601</v>
+        <v>456.1499114825598</v>
       </c>
       <c r="M5" t="n">
-        <v>729.404193174882</v>
+        <v>729.404193174881</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202374</v>
+        <v>1011.693823202373</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798406</v>
+        <v>1264.916654798405</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189403</v>
+        <v>1446.535482189401</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="V5" t="n">
-        <v>1203.688023918146</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="W5" t="n">
-        <v>850.9193686480314</v>
+        <v>1181.9822559916</v>
       </c>
       <c r="X5" t="n">
-        <v>850.9193686480314</v>
+        <v>1181.9822559916</v>
       </c>
       <c r="Y5" t="n">
-        <v>463.3560072183051</v>
+        <v>794.4188945618744</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201.319696699822</v>
+        <v>663.4085536335544</v>
       </c>
       <c r="C6" t="n">
-        <v>177.2295761983493</v>
+        <v>620.3583628982377</v>
       </c>
       <c r="D6" t="n">
-        <v>177.2295761983493</v>
+        <v>471.4239532369864</v>
       </c>
       <c r="E6" t="n">
-        <v>177.2295761983493</v>
+        <v>312.1864982315309</v>
       </c>
       <c r="F6" t="n">
-        <v>30.69501822523432</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523432</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523432</v>
+        <v>67.3348816287873</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523429</v>
       </c>
       <c r="J6" t="n">
-        <v>49.4420610756337</v>
+        <v>49.44206107563357</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169435</v>
+        <v>180.9835516516481</v>
       </c>
       <c r="L6" t="n">
-        <v>425.8680069697333</v>
+        <v>375.4788954829991</v>
       </c>
       <c r="M6" t="n">
-        <v>672.1917676404782</v>
+        <v>621.8026561537438</v>
       </c>
       <c r="N6" t="n">
-        <v>939.4436302126996</v>
+        <v>889.054518725965</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749974</v>
+        <v>1111.317965891482</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948662</v>
+        <v>1270.370911090169</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261716</v>
+        <v>1534.750911261714</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757965</v>
+        <v>1530.346686757963</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757965</v>
+        <v>1530.346686757963</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.442044309649</v>
+        <v>1334.442044309647</v>
       </c>
       <c r="U6" t="n">
-        <v>1106.320960630253</v>
+        <v>1106.320960630251</v>
       </c>
       <c r="V6" t="n">
-        <v>871.1688523985104</v>
+        <v>871.1688523985083</v>
       </c>
       <c r="W6" t="n">
-        <v>616.9314956703088</v>
+        <v>871.1688523985083</v>
       </c>
       <c r="X6" t="n">
-        <v>409.0799954647759</v>
+        <v>871.1688523985083</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.319696699822</v>
+        <v>663.4085536335544</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.5909280708242</v>
+        <v>646.4753625676428</v>
       </c>
       <c r="C7" t="n">
-        <v>141.5909280708242</v>
+        <v>477.5391796397359</v>
       </c>
       <c r="D7" t="n">
-        <v>141.5909280708242</v>
+        <v>327.4225402274002</v>
       </c>
       <c r="E7" t="n">
-        <v>141.5909280708242</v>
+        <v>179.5094466450071</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709673</v>
+        <v>32.61949914709676</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709673</v>
+        <v>32.61949914709676</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709673</v>
+        <v>32.61949914709676</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709673</v>
+        <v>32.61949914709676</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523432</v>
+        <v>30.69501822523429</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223262</v>
+        <v>157.432275622326</v>
       </c>
       <c r="L7" t="n">
-        <v>375.138765583038</v>
+        <v>375.1387655830377</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388138</v>
+        <v>615.0688576388134</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974805</v>
+        <v>854.72856479748</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.07679889167</v>
+        <v>1060.076798891669</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934019</v>
+        <v>1212.267005934018</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495181</v>
+        <v>1234.20053649518</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402738</v>
+        <v>1234.20053649518</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371271</v>
+        <v>1234.20053649518</v>
       </c>
       <c r="T7" t="n">
-        <v>685.6925863136717</v>
+        <v>1234.20053649518</v>
       </c>
       <c r="U7" t="n">
-        <v>685.6925863136717</v>
+        <v>1234.20053649518</v>
       </c>
       <c r="V7" t="n">
-        <v>431.0080981077848</v>
+        <v>979.5160482892933</v>
       </c>
       <c r="W7" t="n">
-        <v>141.5909280708242</v>
+        <v>828.1238273978826</v>
       </c>
       <c r="X7" t="n">
-        <v>141.5909280708242</v>
+        <v>828.1238273978826</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.5909280708242</v>
+        <v>828.1238273978826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.061860336089</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>276.0244191129133</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>276.0244191129133</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>276.0244191129133</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>276.0244191129133</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1938.142929854344</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1569.180412913932</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1569.180412913932</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>1183.392160315688</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194422</v>
+        <v>785.0599995044465</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377401</v>
+        <v>3672.9046893774</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.904689377401</v>
+        <v>3419.410747498928</v>
       </c>
       <c r="V11" t="n">
-        <v>3672.904689377401</v>
+        <v>3088.347860155357</v>
       </c>
       <c r="W11" t="n">
-        <v>3320.136034107287</v>
+        <v>3088.347860155357</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.192071794389</v>
+        <v>2714.882101894278</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>2324.742769918466</v>
       </c>
     </row>
     <row r="12">
@@ -5103,25 +5103,25 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>84.53144813504287</v>
       </c>
       <c r="L12" t="n">
         <v>503.2284887929944</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>835.7893828380001</v>
       </c>
       <c r="C13" t="n">
-        <v>925.516358754737</v>
+        <v>666.8531999100932</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424012</v>
+        <v>516.7365604977574</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600082</v>
+        <v>368.8234669153643</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>221.9335194174539</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>221.9335194174539</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
         <v>1786.049800818664</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.627619458879</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.627619458879</v>
+        <v>1627.379943126699</v>
       </c>
       <c r="V13" t="n">
-        <v>1724.883136554431</v>
+        <v>1372.695454920812</v>
       </c>
       <c r="W13" t="n">
-        <v>1724.883136554431</v>
+        <v>1083.278284883851</v>
       </c>
       <c r="X13" t="n">
-        <v>1496.893585656414</v>
+        <v>855.2887339858339</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512883</v>
+        <v>835.7893828380001</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434738</v>
+        <v>991.7436897307815</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155669</v>
+        <v>822.8075068028746</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032312</v>
+        <v>672.6908673905389</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208382</v>
+        <v>524.7777738081458</v>
       </c>
       <c r="F16" t="n">
-        <v>256.118667722928</v>
+        <v>377.8878263102354</v>
       </c>
       <c r="G16" t="n">
-        <v>256.118667722928</v>
+        <v>210.6917270251153</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038369</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179777</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258109</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258109</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052222</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015261</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117244</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973713</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311995</v>
+        <v>1029.681434529217</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032926</v>
+        <v>860.74525160131</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909569</v>
+        <v>710.6286121889725</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085638</v>
+        <v>562.7155186065794</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8360202106533</v>
+        <v>415.825571108669</v>
       </c>
       <c r="G19" t="n">
-        <v>187.8360202106533</v>
+        <v>248.6294718235489</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>106.917640665747</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614391</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5908,10 +5908,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2414.193578369582</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2414.193578369582</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2194.592113392523</v>
       </c>
       <c r="U22" t="n">
-        <v>2125.286319795768</v>
+        <v>1905.516886736721</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589881</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.18466155292</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1807.973581098312</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2392.147342939586</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2392.147342939586</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2172.545877962526</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6446,46 +6446,46 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188007</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,13 +6643,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533435</v>
@@ -6661,10 +6661,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490404</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400711</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121642</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121642</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121642</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121642</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6953,10 +6953,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188007</v>
+        <v>762.5477693179097</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926973</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803616</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979685</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614398</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179097</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7579,7 +7579,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
         <v>2035.089393279803</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637054</v>
+        <v>34.43939438637065</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>21.56058953000496</v>
       </c>
       <c r="L6" t="n">
-        <v>72.4586819408471</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>159.1791953250072</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417442</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>12.52720653858239</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>161.8865779887007</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>109.8306052484245</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>199.2802957157389</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.88156453658229</v>
+        <v>105.8542358274174</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>68.29586847696818</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>33.93343655154973</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>148.7507642442408</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194214</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>52.01660326104712</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>12.10766347585306</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516653</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194236</v>
+        <v>62.35543909864988</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>26.93934589766761</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>98.08864825591507</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>211.1765892730634</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194179</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1015849.426387468</v>
+        <v>1015849.426387467</v>
       </c>
     </row>
     <row r="6">
@@ -26320,19 +26320,19 @@
         <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="G2" t="n">
-        <v>302679.9748837521</v>
-      </c>
       <c r="H2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="I2" t="n">
         <v>302679.9748837524</v>
-      </c>
-      <c r="I2" t="n">
-        <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837522</v>
@@ -26341,16 +26341,16 @@
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837525</v>
       </c>
       <c r="P2" t="n">
         <v>302679.9748837522</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657046</v>
+        <v>132804.2190657041</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929399</v>
+        <v>265413.0723929403</v>
       </c>
       <c r="E3" t="n">
         <v>313577.1573545773</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417372</v>
+        <v>30877.42926417362</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049622</v>
+        <v>65018.34502049628</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273077</v>
+        <v>81897.40371273069</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202369</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212545.7959513245</v>
+        <v>212545.7959513247</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
@@ -26430,34 +26430,34 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756566</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>9337.200356756552</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.20035675655</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756613</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675661</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756572</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756555</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667477</v>
+        <v>72593.65038667474</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683788.3867828998</v>
+        <v>-683788.3867829</v>
       </c>
       <c r="C6" t="n">
-        <v>-110053.0017045978</v>
+        <v>-110053.0017045974</v>
       </c>
       <c r="D6" t="n">
-        <v>-187186.4548257808</v>
+        <v>-187186.4548257811</v>
       </c>
       <c r="E6" t="n">
-        <v>-133225.4576161744</v>
+        <v>-133446.5889301492</v>
       </c>
       <c r="F6" t="n">
-        <v>2911.975932659741</v>
+        <v>2877.238007224121</v>
       </c>
       <c r="G6" t="n">
-        <v>192220.2447030884</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="H6" t="n">
-        <v>192220.2447030887</v>
+        <v>192185.5067776529</v>
       </c>
       <c r="I6" t="n">
-        <v>192220.2447030884</v>
+        <v>192185.5067776528</v>
       </c>
       <c r="J6" t="n">
-        <v>123221.0902839744</v>
+        <v>123186.3523585387</v>
       </c>
       <c r="K6" t="n">
-        <v>161342.8154389148</v>
+        <v>161308.0775134792</v>
       </c>
       <c r="L6" t="n">
-        <v>127201.8996825922</v>
+        <v>127167.1617571568</v>
       </c>
       <c r="M6" t="n">
-        <v>110322.8409903579</v>
+        <v>110288.1030649223</v>
       </c>
       <c r="N6" t="n">
-        <v>142380.6705710649</v>
+        <v>142345.9326456292</v>
       </c>
       <c r="O6" t="n">
-        <v>192220.2447030885</v>
+        <v>192185.5067776531</v>
       </c>
       <c r="P6" t="n">
-        <v>192220.2447030884</v>
+        <v>192185.5067776528</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169573</v>
+        <v>717.3319511695726</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815429</v>
+        <v>383.6877278154286</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000947</v>
+        <v>103.2769374000942</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479662</v>
+        <v>216.7329409479665</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974112</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139229</v>
+        <v>119.9738478139223</v>
       </c>
       <c r="D4" t="n">
-        <v>256.89710428461</v>
+        <v>256.8971042846102</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139229</v>
+        <v>119.9738478139226</v>
       </c>
       <c r="L4" t="n">
-        <v>256.89710428461</v>
+        <v>256.8971042846102</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139229</v>
+        <v>119.9738478139223</v>
       </c>
       <c r="L4" t="n">
-        <v>256.89710428461</v>
+        <v>256.8971042846102</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5968602363849</v>
+        <v>162.0311481131612</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27433,10 +27433,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>119.1670209198474</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>161.2840815900432</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.8655235320439</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>128.882188643945</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>373.6944992798218</v>
+        <v>383.1643325378982</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899767</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863719</v>
+        <v>99.30025118863726</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>143.3066953660377</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>210.4722490968156</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840624572</v>
+        <v>2.550210840625027</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>148.8592796918578</v>
+        <v>130.0888101603522</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333231</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951745</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.023729469846</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>37.53933338844105</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
@@ -27792,7 +27792,7 @@
         <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015379</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315186</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>136.6446996540944</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>284.0581876145775</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>71.18931603409885</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>73.3371259538801</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193759</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.276139040289944e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.706357804527215e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365115</v>
+        <v>2.883746537365114</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579049</v>
+        <v>29.53316922579048</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817687</v>
+        <v>111.1756383817686</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756927</v>
+        <v>244.7543826756925</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023581</v>
+        <v>366.8233736023579</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952459</v>
+        <v>455.0768316952456</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791127</v>
+        <v>506.3606591791124</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284014</v>
+        <v>514.5541040284011</v>
       </c>
       <c r="O5" t="n">
-        <v>485.878849397477</v>
+        <v>485.8788493974766</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562756</v>
+        <v>414.6863567562754</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868873</v>
+        <v>311.4121838868871</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277616</v>
+        <v>181.1461434277615</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020764</v>
+        <v>65.7133742202076</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6236004673158</v>
+        <v>12.62360046731579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892092</v>
+        <v>0.230699722989209</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270402</v>
+        <v>1.542940423270401</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316415</v>
+        <v>14.90155619316414</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189763</v>
+        <v>53.1231680818976</v>
       </c>
       <c r="J6" t="n">
-        <v>145.774033586262</v>
+        <v>145.7740335862619</v>
       </c>
       <c r="K6" t="n">
-        <v>249.151041945379</v>
+        <v>249.1510419453788</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438653</v>
+        <v>335.014323043865</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874172</v>
+        <v>390.945913387417</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189105</v>
+        <v>401.2930884189103</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348663</v>
+        <v>367.104776934866</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190649</v>
+        <v>294.6339480190646</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739553</v>
+        <v>196.9549915739551</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392906</v>
+        <v>95.797651893929</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399189</v>
+        <v>28.65944163399187</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989032</v>
+        <v>6.219132670989028</v>
       </c>
       <c r="U6" t="n">
         <v>0.1015092383730528</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141853</v>
+        <v>1.293549420141852</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907939</v>
+        <v>11.50083029907938</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572046</v>
+        <v>38.90055892572043</v>
       </c>
       <c r="J7" t="n">
-        <v>91.453944004029</v>
+        <v>91.45394400402893</v>
       </c>
       <c r="K7" t="n">
         <v>150.286923540117</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545442</v>
+        <v>192.3155201545441</v>
       </c>
       <c r="M7" t="n">
-        <v>202.769751377327</v>
+        <v>202.7697513773268</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022529</v>
+        <v>197.9483399022528</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669594</v>
+        <v>182.8373307669593</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960655</v>
+        <v>156.4489225960654</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266055</v>
+        <v>108.3171246266054</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565093</v>
+        <v>58.1626857456509</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101755</v>
+        <v>22.54303853101754</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060642</v>
+        <v>5.526983886060639</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0705572410986466</v>
+        <v>0.07055724109864656</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>144.9058654583208</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206105</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
         <v>655.2214742821478</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639554</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.7084781490064</v>
+        <v>63.70847814900625</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573776</v>
+        <v>146.7335225573773</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252586</v>
+        <v>219.3104167252583</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518399</v>
+        <v>276.0144259518396</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318105</v>
+        <v>285.1410404318102</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757903</v>
+        <v>255.7806379757899</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010061</v>
+        <v>183.4533610010058</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243782</v>
+        <v>89.10649401243765</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959533</v>
+        <v>18.93640691959524</v>
       </c>
       <c r="K6" t="n">
-        <v>111.30960297102</v>
+        <v>132.8701925010248</v>
       </c>
       <c r="L6" t="n">
-        <v>268.9186252048382</v>
+        <v>196.4599432639909</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653989</v>
+        <v>248.8118794653987</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355772</v>
+        <v>269.9513763355769</v>
       </c>
       <c r="O6" t="n">
-        <v>383.687727815429</v>
+        <v>224.5085324904216</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047346</v>
+        <v>160.6595406047344</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793374</v>
+        <v>267.0505052237827</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142342</v>
+        <v>128.0174317142341</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148604</v>
+        <v>219.9055454148603</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391676</v>
+        <v>242.3536283391674</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814815</v>
+        <v>242.0805122814814</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809991</v>
+        <v>207.422458680999</v>
       </c>
       <c r="P7" t="n">
-        <v>153.727481860959</v>
+        <v>153.7274818609589</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491113</v>
+        <v>22.15508137491106</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>7.06442648396177</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073628</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601294</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962517</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096377</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
